--- a/src/tests/mictourism-option.test-cases.xlsx
+++ b/src/tests/mictourism-option.test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3986368-ED59-6144-91A9-B78F97F21EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEBDDDB-E3D3-FE41-9206-270A62AB4F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2340" windowWidth="31640" windowHeight="19760" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carIntensityFactorKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>carChargingKey</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,10 +360,6 @@
   </si>
   <si>
     <t>motorbikeWeeklyTravelingTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gasoline_driving-factor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -637,6 +629,14 @@
   </si>
   <si>
     <t>hasTravelingTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carIntensityFactorFirstKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gasoline</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1098,15 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1121,6 +1112,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>55</v>
@@ -2413,21 +2413,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>5000</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2554,30 +2554,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -2622,13 +2622,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2656,13 +2656,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -2757,21 +2757,21 @@
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="L1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="27">
         <v>5805.9062505560078</v>
@@ -2797,23 +2797,23 @@
       <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="38">
+      <c r="L2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="35">
         <v>0.67260829487575435</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="29">
         <v>14575.758267267402</v>
@@ -2840,22 +2840,22 @@
         <v>26</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="40">
+        <v>106</v>
+      </c>
+      <c r="M3" s="37">
         <v>0.16574985466434691</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="29">
         <v>1118.7809596741663</v>
@@ -2882,22 +2882,22 @@
         <v>28</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="40">
+        <v>107</v>
+      </c>
+      <c r="M4" s="37">
         <v>0.32464570825081396</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="29">
         <v>66.757142895403277</v>
@@ -2924,22 +2924,22 @@
         <v>30</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="40">
+        <v>108</v>
+      </c>
+      <c r="M5" s="37">
         <v>0.57815701182518975</v>
       </c>
-      <c r="N5" s="41"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="29">
         <v>843.19874818615824</v>
@@ -2966,22 +2966,22 @@
         <v>32</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="40">
+        <v>109</v>
+      </c>
+      <c r="M6" s="37">
         <v>0.2782021713439688</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="29">
         <v>3918.3007543558738</v>
@@ -3008,22 +3008,22 @@
         <v>35</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="40">
+        <v>110</v>
+      </c>
+      <c r="M7" s="37">
         <v>0.2819046328756884</v>
       </c>
-      <c r="N7" s="41"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="29">
         <v>775.67614249697908</v>
@@ -3050,22 +3050,22 @@
         <v>37</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="40">
+        <v>111</v>
+      </c>
+      <c r="M8" s="37">
         <v>0.55596760076885188</v>
       </c>
-      <c r="N8" s="41"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="29">
         <v>1119.5081423254096</v>
@@ -3092,22 +3092,22 @@
         <v>39</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="40">
+        <v>112</v>
+      </c>
+      <c r="M9" s="37">
         <v>0.21846117784697486</v>
       </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="21" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="28">
         <v>247.98851974429002</v>
@@ -3133,23 +3133,23 @@
       <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="40">
+      <c r="L10" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="37">
         <v>7.9092056834642599E-2</v>
       </c>
-      <c r="N10" s="44"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="21" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="26">
         <v>168.93444059755035</v>
@@ -3175,25 +3175,25 @@
       <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="8"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="27">
         <v>3.9266742409077245E-2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>18</v>
@@ -3219,19 +3219,19 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="29">
         <v>1.1594276586443861E-2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -3252,28 +3252,28 @@
         <v>46</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="40">
+        <v>114</v>
+      </c>
+      <c r="M13" s="37">
         <v>0.23257788663507117</v>
       </c>
       <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="29">
         <v>2.0581132872637662</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -3295,19 +3295,19 @@
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="29">
         <v>50.2927358380988</v>
@@ -3335,19 +3335,19 @@
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="29">
         <v>1.9627399117616338</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="17" spans="1:14" ht="21" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="28">
         <v>0.38198423917262919</v>
